--- a/Essays/Essay_grading_examples2.xlsx
+++ b/Essays/Essay_grading_examples2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustgz-my.sharepoint.com/personal/qichunyang_hkust-gz_edu_cn/Documents/Desktop/papers/proposals/HKUST-GZ/Practice_2025/Project_conduction/essays/2024_fall/section1_essay2_submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{CB107C2F-4BB5-4546-AB25-244A64B62FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1B2DC7E-35FD-4932-8BBF-E79084A4BB93}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{F93FCEEF-CEA7-4A17-9F79-3E278DA862B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD7AEA80-D12B-48A7-867A-D2247C96B9B3}"/>
   <bookViews>
     <workbookView xWindow="21840" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="209">
   <si>
     <t>Focus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,537 @@
   </si>
   <si>
     <t>translated from a chinese version</t>
+  </si>
+  <si>
+    <t>Essay21</t>
+  </si>
+  <si>
+    <t>Essay22</t>
+  </si>
+  <si>
+    <t>Essay23</t>
+  </si>
+  <si>
+    <t>Essay24</t>
+  </si>
+  <si>
+    <t>Essay25</t>
+  </si>
+  <si>
+    <t>Essay26</t>
+  </si>
+  <si>
+    <t>Essay27</t>
+  </si>
+  <si>
+    <t>Essay28</t>
+  </si>
+  <si>
+    <t>Essay29</t>
+  </si>
+  <si>
+    <t>Essay30</t>
+  </si>
+  <si>
+    <t>Essay31</t>
+  </si>
+  <si>
+    <t>Essay32</t>
+  </si>
+  <si>
+    <t>Essay33</t>
+  </si>
+  <si>
+    <t>Essay34</t>
+  </si>
+  <si>
+    <t>Essay35</t>
+  </si>
+  <si>
+    <t>Essay36</t>
+  </si>
+  <si>
+    <t>Essay37</t>
+  </si>
+  <si>
+    <t>Essay38</t>
+  </si>
+  <si>
+    <t>Essay39</t>
+  </si>
+  <si>
+    <t>Essay40</t>
+  </si>
+  <si>
+    <t>Essay41</t>
+  </si>
+  <si>
+    <t>Essay42</t>
+  </si>
+  <si>
+    <t>Essay43</t>
+  </si>
+  <si>
+    <t>Essay44</t>
+  </si>
+  <si>
+    <t>Essay45</t>
+  </si>
+  <si>
+    <t>Essay46</t>
+  </si>
+  <si>
+    <t>Essay47</t>
+  </si>
+  <si>
+    <t>Essay48</t>
+  </si>
+  <si>
+    <t>Essay49</t>
+  </si>
+  <si>
+    <t>Essay50</t>
+  </si>
+  <si>
+    <t>Essay51</t>
+  </si>
+  <si>
+    <t>Essay52</t>
+  </si>
+  <si>
+    <t>Essay53</t>
+  </si>
+  <si>
+    <t>Essay54</t>
+  </si>
+  <si>
+    <t>Essay55</t>
+  </si>
+  <si>
+    <t>Essay56</t>
+  </si>
+  <si>
+    <t>Essay57</t>
+  </si>
+  <si>
+    <t>Essay58</t>
+  </si>
+  <si>
+    <t>Essay59</t>
+  </si>
+  <si>
+    <t>Essay60</t>
+  </si>
+  <si>
+    <t>Essay61</t>
+  </si>
+  <si>
+    <t>Essay62</t>
+  </si>
+  <si>
+    <t>Essay63</t>
+  </si>
+  <si>
+    <t>Essay64</t>
+  </si>
+  <si>
+    <t>Essay65</t>
+  </si>
+  <si>
+    <t>Essay66</t>
+  </si>
+  <si>
+    <t>Essay67</t>
+  </si>
+  <si>
+    <t>Essay68</t>
+  </si>
+  <si>
+    <t>Essay69</t>
+  </si>
+  <si>
+    <t>Essay70</t>
+  </si>
+  <si>
+    <t>Essay71</t>
+  </si>
+  <si>
+    <t>Essay72</t>
+  </si>
+  <si>
+    <t>Essay73</t>
+  </si>
+  <si>
+    <t>Essay74</t>
+  </si>
+  <si>
+    <t>Essay75</t>
+  </si>
+  <si>
+    <t>Essay76</t>
+  </si>
+  <si>
+    <t>Essay77</t>
+  </si>
+  <si>
+    <t>Essay78</t>
+  </si>
+  <si>
+    <t>Essay79</t>
+  </si>
+  <si>
+    <t>Essay80</t>
+  </si>
+  <si>
+    <t>Essay81</t>
+  </si>
+  <si>
+    <t>Essay82</t>
+  </si>
+  <si>
+    <t>Essay83</t>
+  </si>
+  <si>
+    <t>Essay84</t>
+  </si>
+  <si>
+    <t>Essay85</t>
+  </si>
+  <si>
+    <t>Essay86</t>
+  </si>
+  <si>
+    <t>Essay87</t>
+  </si>
+  <si>
+    <t>Essay88</t>
+  </si>
+  <si>
+    <t>Essay89</t>
+  </si>
+  <si>
+    <t>Essay90</t>
+  </si>
+  <si>
+    <t>Essay91</t>
+  </si>
+  <si>
+    <t>Essay92</t>
+  </si>
+  <si>
+    <t>Essay93</t>
+  </si>
+  <si>
+    <t>Essay94</t>
+  </si>
+  <si>
+    <t>Essay95</t>
+  </si>
+  <si>
+    <t>Essay96</t>
+  </si>
+  <si>
+    <t>Essay97</t>
+  </si>
+  <si>
+    <t>Essay98</t>
+  </si>
+  <si>
+    <t>Essay99</t>
+  </si>
+  <si>
+    <t>Essay100</t>
+  </si>
+  <si>
+    <t>Essay101</t>
+  </si>
+  <si>
+    <t>Essay102</t>
+  </si>
+  <si>
+    <t>Essay103</t>
+  </si>
+  <si>
+    <t>Essay104</t>
+  </si>
+  <si>
+    <t>Essay105</t>
+  </si>
+  <si>
+    <t>Essay106</t>
+  </si>
+  <si>
+    <t>Essay107</t>
+  </si>
+  <si>
+    <t>Essay108</t>
+  </si>
+  <si>
+    <t>Essay109</t>
+  </si>
+  <si>
+    <t>Essay110</t>
+  </si>
+  <si>
+    <t>Essay111</t>
+  </si>
+  <si>
+    <t>Essay112</t>
+  </si>
+  <si>
+    <t>Essay113</t>
+  </si>
+  <si>
+    <t>Essay114</t>
+  </si>
+  <si>
+    <t>Essay115</t>
+  </si>
+  <si>
+    <t>Essay116</t>
+  </si>
+  <si>
+    <t>Essay117</t>
+  </si>
+  <si>
+    <t>Essay118</t>
+  </si>
+  <si>
+    <t>Essay119</t>
+  </si>
+  <si>
+    <t>Essay120</t>
+  </si>
+  <si>
+    <t>Essay121</t>
+  </si>
+  <si>
+    <t>Essay122</t>
+  </si>
+  <si>
+    <t>Essay123</t>
+  </si>
+  <si>
+    <t>Essay124</t>
+  </si>
+  <si>
+    <t>Essay125</t>
+  </si>
+  <si>
+    <t>Essay126</t>
+  </si>
+  <si>
+    <t>Essay127</t>
+  </si>
+  <si>
+    <t>Essay128</t>
+  </si>
+  <si>
+    <t>Essay129</t>
+  </si>
+  <si>
+    <t>Essay130</t>
+  </si>
+  <si>
+    <t>Essay131</t>
+  </si>
+  <si>
+    <t>Essay132</t>
+  </si>
+  <si>
+    <t>Essay133</t>
+  </si>
+  <si>
+    <t>Essay134</t>
+  </si>
+  <si>
+    <t>Essay135</t>
+  </si>
+  <si>
+    <t>Essay136</t>
+  </si>
+  <si>
+    <t>Essay137</t>
+  </si>
+  <si>
+    <t>Essay138</t>
+  </si>
+  <si>
+    <t>Essay139</t>
+  </si>
+  <si>
+    <t>Essay140</t>
+  </si>
+  <si>
+    <t>Essay141</t>
+  </si>
+  <si>
+    <t>Essay142</t>
+  </si>
+  <si>
+    <t>Essay143</t>
+  </si>
+  <si>
+    <t>Essay144</t>
+  </si>
+  <si>
+    <t>Essay145</t>
+  </si>
+  <si>
+    <t>Essay146</t>
+  </si>
+  <si>
+    <t>Essay147</t>
+  </si>
+  <si>
+    <t>Essay148</t>
+  </si>
+  <si>
+    <t>Essay149</t>
+  </si>
+  <si>
+    <t>Essay150</t>
+  </si>
+  <si>
+    <t>Essay151</t>
+  </si>
+  <si>
+    <t>Essay152</t>
+  </si>
+  <si>
+    <t>Essay153</t>
+  </si>
+  <si>
+    <t>Essay154</t>
+  </si>
+  <si>
+    <t>Essay155</t>
+  </si>
+  <si>
+    <t>Essay156</t>
+  </si>
+  <si>
+    <t>AI statement is too simple</t>
+  </si>
+  <si>
+    <t>simple AI statement</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>written by her/himself</t>
+  </si>
+  <si>
+    <t>Did not focus on solutios in the first half</t>
+  </si>
+  <si>
+    <t>mainly generated by AI</t>
+  </si>
+  <si>
+    <t>Insuifficient AI statement</t>
+  </si>
+  <si>
+    <t>Mainly generated using AI</t>
+  </si>
+  <si>
+    <t>AI generated</t>
+  </si>
+  <si>
+    <t>first half is not about solution</t>
+  </si>
+  <si>
+    <t>using the example of china, not generic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using graphics </t>
+  </si>
+  <si>
+    <t>discussed the climate change topic from the AI perspective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a standard essay using AI to assist writing </t>
+  </si>
+  <si>
+    <t>Spent too many efforts talking about what is cliamte change</t>
+  </si>
+  <si>
+    <t>No  AI statement. Did not focus on the required topic</t>
+  </si>
+  <si>
+    <t>you are expected to explain solutions for climate change, not just for flooding</t>
+  </si>
+  <si>
+    <t>heavily rely on Ai</t>
+  </si>
+  <si>
+    <t>majority generated by AI</t>
+  </si>
+  <si>
+    <t>Introduced activities, not solutions. AI statement is too simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first half and second half not coherent </t>
+  </si>
+  <si>
+    <t>did not focus on cliamte change, but on exteme weather events instead</t>
+  </si>
+  <si>
+    <t>No Ai statement</t>
+  </si>
+  <si>
+    <t>First part is not directly related to solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a standard essay using AI to assist writing. First part could be shorter to be less reduandant </t>
+  </si>
+  <si>
+    <t>a standard essay using AI to assist writing.</t>
+  </si>
+  <si>
+    <t>a standard essay using AI to assist writing. First half could be shorter to be more concentrated on solutions</t>
+  </si>
+  <si>
+    <t>A bit short</t>
+  </si>
+  <si>
+    <t>The solutions provided in this essay are not good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would be better if reference is used to support the arguments </t>
+  </si>
+  <si>
+    <t>AI statement too simple</t>
+  </si>
+  <si>
+    <t>very high quality</t>
+  </si>
+  <si>
+    <t>some content in the first half are not solutions</t>
+  </si>
+  <si>
+    <t>a standard essay using AI to assist writing. AI  statement is not surfficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a standard essay using AI to assist writing. </t>
+  </si>
+  <si>
+    <t>a standard essay using AI to assist writing. Some contents seem to be generated directly using AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A typical AI-assisted essay </t>
+  </si>
+  <si>
+    <t>A typical AI-assisted essay, second half is mainly generated by AI</t>
+  </si>
+  <si>
+    <t>First half is redundant</t>
+  </si>
+  <si>
+    <t>A typical AI-assisted essay. First half is not about solutions</t>
+  </si>
+  <si>
+    <t>Essay Topic: What are solutions to climate change</t>
   </si>
 </sst>
 </file>
@@ -303,7 +834,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -648,7 +1179,7 @@
     <col min="6" max="6" width="13.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5" customHeight="1">
+    <row r="1" spans="1:14" ht="22.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -678,8 +1209,11 @@
       <c r="K1" s="11"/>
       <c r="L1" s="12"/>
       <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" ht="89.7" customHeight="1">
+      <c r="N1" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="89.7" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -711,7 +1245,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="55.95" customHeight="1">
+    <row r="3" spans="1:14" ht="55.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -731,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G13" si="0">SUM(B3:F3)</f>
+        <f t="shared" ref="G3:G42" si="0">SUM(B3:F3)</f>
         <v>21.5</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -743,7 +1277,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="88.2" customHeight="1">
+    <row r="4" spans="1:14" ht="88.2" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -775,7 +1309,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="71.7" customHeight="1">
+    <row r="5" spans="1:14" ht="71.7" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -807,7 +1341,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="50.25" customHeight="1">
+    <row r="6" spans="1:14" ht="50.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -839,7 +1373,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="94.95" customHeight="1">
+    <row r="7" spans="1:14" ht="94.95" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -871,7 +1405,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="45.75" customHeight="1">
+    <row r="8" spans="1:14" ht="45.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -903,7 +1437,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="49.2" customHeight="1">
+    <row r="9" spans="1:14" ht="49.2" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -935,7 +1469,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -966,23 +1500,23 @@
       <c r="K10" s="9"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="13">
-        <v>4</v>
-      </c>
-      <c r="C11" s="13">
-        <v>4</v>
-      </c>
-      <c r="D11" s="13">
-        <v>4</v>
-      </c>
-      <c r="E11" s="13">
-        <v>5</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
         <v>3</v>
       </c>
       <c r="G11" s="2">
@@ -993,23 +1527,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="13">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13">
-        <v>4</v>
-      </c>
-      <c r="D12" s="13">
-        <v>3</v>
-      </c>
-      <c r="E12" s="13">
-        <v>5</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
         <v>3</v>
       </c>
       <c r="G12" s="2">
@@ -1020,23 +1554,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13">
-        <v>4</v>
-      </c>
-      <c r="C13" s="13">
-        <v>4</v>
-      </c>
-      <c r="D13" s="13">
-        <v>4</v>
-      </c>
-      <c r="E13" s="13">
-        <v>5</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
         <v>3</v>
       </c>
       <c r="G13" s="2">
@@ -1047,8 +1581,2190 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="D14" s="13"/>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2">
+        <f>SUM(B18:F18)</f>
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="2">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" ref="G35" si="2">SUM(B35:F35)</f>
+        <v>22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2">
+        <f>SUM(B38:F38)</f>
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="2">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>3</v>
+      </c>
+      <c r="G41" s="2">
+        <f>SUM(B41:F41)</f>
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="2">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3</v>
+      </c>
+      <c r="G43" s="2">
+        <f>SUM(B43:F43)</f>
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" ref="G44:G57" si="3">SUM(B44:F44)</f>
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2">
+        <v>4</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="H45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2">
+        <v>4</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" ref="G47" si="4">SUM(B47:F47)</f>
+        <v>23</v>
+      </c>
+      <c r="H47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="2">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2">
+        <v>3</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="2">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5</v>
+      </c>
+      <c r="E49" s="2">
+        <v>5</v>
+      </c>
+      <c r="F49" s="2">
+        <v>3</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="2">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="H50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2">
+        <v>3</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="2">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>5</v>
+      </c>
+      <c r="E52" s="2">
+        <v>5</v>
+      </c>
+      <c r="F52" s="2">
+        <v>4</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="2">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5</v>
+      </c>
+      <c r="E54" s="2">
+        <v>5</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="2">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2">
+        <v>4</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="H55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2">
+        <v>4</v>
+      </c>
+      <c r="E56" s="2">
+        <v>5</v>
+      </c>
+      <c r="F56" s="2">
+        <v>5</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="H56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="2">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2">
+        <v>5</v>
+      </c>
+      <c r="F57" s="2">
+        <v>5</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="H57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3</v>
+      </c>
+      <c r="E58" s="2">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2">
+        <v>3</v>
+      </c>
+      <c r="G58" s="2">
+        <f>SUM(B58:F58)</f>
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="2">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2">
+        <v>5</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" ref="G59:G90" si="5">SUM(B59:F59)</f>
+        <v>20</v>
+      </c>
+      <c r="H59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="2">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2">
+        <v>5</v>
+      </c>
+      <c r="F60" s="2">
+        <v>5</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="H60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4</v>
+      </c>
+      <c r="E61" s="2">
+        <v>5</v>
+      </c>
+      <c r="F61" s="2">
+        <v>5</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="H61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5</v>
+      </c>
+      <c r="E62" s="2">
+        <v>5</v>
+      </c>
+      <c r="F62" s="2">
+        <v>5</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="H62" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="H63" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="2">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2">
+        <v>4</v>
+      </c>
+      <c r="E64" s="2">
+        <v>5</v>
+      </c>
+      <c r="F64" s="2">
+        <v>3</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="H64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="H65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="2">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>4</v>
+      </c>
+      <c r="E66" s="2">
+        <v>5</v>
+      </c>
+      <c r="F66" s="2">
+        <v>3</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="H66" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="H67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="2">
+        <v>5</v>
+      </c>
+      <c r="C68" s="2">
+        <v>4</v>
+      </c>
+      <c r="D68" s="2">
+        <v>4</v>
+      </c>
+      <c r="E68" s="2">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="H68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="H69" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70" s="2">
+        <f>SUM(B70:F70)</f>
+        <v>23</v>
+      </c>
+      <c r="H70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="H71" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="H72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="H73" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="H74" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="H75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="H76" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="H77" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="H78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="H79" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="2">
+        <v>5</v>
+      </c>
+      <c r="C80" s="2">
+        <v>5</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4</v>
+      </c>
+      <c r="E80" s="2">
+        <v>5</v>
+      </c>
+      <c r="F80" s="2">
+        <v>5</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="H80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="H81" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Essays/Essay_grading_examples2.xlsx
+++ b/Essays/Essay_grading_examples2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustgz-my.sharepoint.com/personal/qichunyang_hkust-gz_edu_cn/Documents/Desktop/papers/proposals/HKUST-GZ/Practice_2025/Project_conduction/essays/2024_fall/section1_essay2_submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{F93FCEEF-CEA7-4A17-9F79-3E278DA862B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD7AEA80-D12B-48A7-867A-D2247C96B9B3}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="13_ncr:1_{F93FCEEF-CEA7-4A17-9F79-3E278DA862B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B85E2AB6-4872-4F40-8DF7-E446478132DA}"/>
   <bookViews>
-    <workbookView xWindow="21840" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="219">
   <si>
     <t>Focus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,6 +670,36 @@
   </si>
   <si>
     <t>Essay Topic: What are solutions to climate change</t>
+  </si>
+  <si>
+    <t>Did not focus on the suggested topic, and without AI statement</t>
+  </si>
+  <si>
+    <t>second part is main generated with AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus is not correct; no AI statement; short than required length </t>
+  </si>
+  <si>
+    <t>logic is not good; short; no AI statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No development; no AI statement </t>
+  </si>
+  <si>
+    <t>Messy logics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did not talk about soluations </t>
+  </si>
+  <si>
+    <t>Vague. Just one paragraph</t>
+  </si>
+  <si>
+    <t>Poor logics</t>
+  </si>
+  <si>
+    <t>too short; has little to do with the required topic</t>
   </si>
 </sst>
 </file>
@@ -796,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,9 +862,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1209,7 +1236,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="12"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2816,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" ref="G59:G90" si="5">SUM(B59:F59)</f>
+        <f t="shared" ref="G59:G93" si="5">SUM(B59:F59)</f>
         <v>20</v>
       </c>
       <c r="H59" t="s">
@@ -3421,69 +3448,324 @@
       <c r="A82" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G82" s="2"/>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="H82" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G83" s="2"/>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G84" s="2"/>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="H84" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G85" s="2"/>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G86" s="2"/>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="H86" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G87" s="2"/>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="H87" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G88" s="2"/>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="H88" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G89" s="2"/>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="H89" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G90" s="2"/>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="H91" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H92" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H93" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:8">
